--- a/public/1refresh-5 副本.xlsx
+++ b/public/1refresh-5 副本.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\project\vue-excel-process-system\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\320200255\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC03A4E3-072E-4E1B-A0CA-CF74CCC7F406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCFFD0-DF5B-4B5D-92C8-81C43F7ABDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="2805" windowWidth="20520" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23520" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Headline</t>
   </si>
@@ -64,6 +73,18 @@
   </si>
   <si>
     <t>ceshi2de</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>proDUcts</t>
   </si>
 </sst>
 </file>
@@ -409,78 +430,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
